--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a111111/Desktop/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a111111/Desktop/GitHub/StereotypicalSuggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6C7D35-2A4F-9D46-8BE0-AEFB64209CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBA0E7-BC65-D640-AD13-69E76DA4021E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15600" xr2:uid="{D6802059-6949-DD4D-B097-75B627D03B95}"/>
+    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="15600" xr2:uid="{D6802059-6949-DD4D-B097-75B627D03B95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,25 +130,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>filtered</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> of person descriptors with fair results filtered</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Data</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Stereotypical/person descriptor</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -507,25 +500,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Unfiltered</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> of person descriptors unfiltered</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Data</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Stereotypical/person descriptor</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -870,13 +856,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -885,15 +885,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sterotype</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Spotted</a:t>
+              <a:t>Person descriptors count</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -910,13 +902,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2852,16 +2858,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2891,15 +2897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3266,8 +3272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA62877-4E6F-4747-B118-A066EA9EB0D4}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a111111/Desktop/GitHub/StereotypicalSuggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBA0E7-BC65-D640-AD13-69E76DA4021E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81E031D-E0D3-BA44-90ED-0E299BD216D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="15600" xr2:uid="{D6802059-6949-DD4D-B097-75B627D03B95}"/>
+    <workbookView xWindow="780" yWindow="720" windowWidth="27640" windowHeight="15600" xr2:uid="{D6802059-6949-DD4D-B097-75B627D03B95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,8 +885,69 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Person descriptors count</a:t>
+              <a:t>Person descriptors </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>spotted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>engine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>search</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3273,7 +3334,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
